--- a/biology/Zoologie/Flet/Flet.xlsx
+++ b/biology/Zoologie/Flet/Flet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flet est un nom vernaculaire ambigu désignant en français certains poissons marins faisant partie de l'Ordre des Pleuronectiformes, ou poissons plats. Des espèces appelées flets sont présentes dans deux familles : les Pleuronectidae et les Bothidae.
 </t>
@@ -511,15 +523,17 @@
           <t>Espèces nommées « flet »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Flet (tout court) - Platichthys flesus et, plus rarement, Liopsetta glacialis[1]
-Flet d'Arrowtooth - Atheresthes Stomias[2]
-Flet commun - Platichthys flesus[3]
-Flet d'Europe - voir Flet commun[3]
-Flet étoilé - Platichthys stellatus[1]
-Flet pierre - Kareius bicoloratus[4]
-Flet tropical - Bothus mancus  [5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Flet (tout court) - Platichthys flesus et, plus rarement, Liopsetta glacialis
+Flet d'Arrowtooth - Atheresthes Stomias
+Flet commun - Platichthys flesus
+Flet d'Europe - voir Flet commun
+Flet étoilé - Platichthys stellatus
+Flet pierre - Kareius bicoloratus
+Flet tropical - Bothus mancus  
 etc.</t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons plats qui prennent la couleur de leur environnement par mimétisme. Ils peuvent s'enfouir aussi dans le sable pour se camoufler. Ces poissons se nourrissent de petites créatures aquatiques : crevettes, mollusques, vers et même de petits poissons. Ils attendent tapis dans le sable qu'une proie passe.
 Le flet se confond souvent avec la plie (carrelet). Pour différencier les deux poissons, il suffit de repérer des tubercules épineux situés à la base des nageoires dorsales et anales. Ceux-ci sont présents chez le flet et absents chez la plie.
